--- a/data/extracted_data/raw_round2/Li_2019_Fig_5.xlsx
+++ b/data/extracted_data/raw_round2/Li_2019_Fig_5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tinafang19961207/Desktop/biotoxin_depuration_round2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFCADF1-9FB4-F748-A425-E32232D3B16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{5BFCADF1-9FB4-F748-A425-E32232D3B16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2ACD97CC-18F3-3D4F-8D28-AD7889EDBD76}"/>
   <bookViews>
-    <workbookView xWindow="22120" yWindow="7040" windowWidth="27640" windowHeight="16940" xr2:uid="{D8AE5380-817D-914F-9F30-AAA815AB977D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{D8AE5380-817D-914F-9F30-AAA815AB977D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="6">
   <si>
     <t>treatment</t>
   </si>
@@ -44,13 +44,16 @@
     <t>0g/L</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>0.1g/L</t>
   </si>
   <si>
     <t>0.5g/L</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>toxicity</t>
   </si>
 </sst>
 </file>
@@ -106,9 +109,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -146,7 +149,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -252,7 +255,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -394,7 +397,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -405,7 +408,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -415,7 +418,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -508,7 +514,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -519,7 +525,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -530,7 +536,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -541,7 +547,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -552,7 +558,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14">
         <v>24</v>
@@ -563,7 +569,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15">
         <v>48</v>
@@ -574,7 +580,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16">
         <v>96</v>
@@ -585,7 +591,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17">
         <v>384</v>
@@ -596,7 +602,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -607,7 +613,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -618,7 +624,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -629,7 +635,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21">
         <v>12</v>
@@ -640,7 +646,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22">
         <v>24</v>
@@ -651,7 +657,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23">
         <v>48</v>
@@ -662,7 +668,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24">
         <v>96</v>
@@ -673,7 +679,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25">
         <v>384</v>

--- a/data/extracted_data/raw_round2/Li_2019_Fig_5.xlsx
+++ b/data/extracted_data/raw_round2/Li_2019_Fig_5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{5BFCADF1-9FB4-F748-A425-E32232D3B16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2ACD97CC-18F3-3D4F-8D28-AD7889EDBD76}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{5BFCADF1-9FB4-F748-A425-E32232D3B16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE85E89C-AE28-6143-8AC4-443F306937AA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{D8AE5380-817D-914F-9F30-AAA815AB977D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{D8AE5380-817D-914F-9F30-AAA815AB977D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="9">
   <si>
     <t>treatment</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>toxicity</t>
+  </si>
+  <si>
+    <t>phase</t>
+  </si>
+  <si>
+    <t>Uptake</t>
+  </si>
+  <si>
+    <t>Depuration</t>
   </si>
 </sst>
 </file>
@@ -106,6 +115,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -405,286 +418,361 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95061EB1-E919-3245-9830-3CF79772927B}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>33.262411347517698</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>3</v>
+      <c r="B3" t="s">
+        <v>8</v>
       </c>
       <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
         <v>105.74468085106299</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>78.936170212765902</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
         <v>12</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>92.836879432624102</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
         <v>24</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>81.914893617021207</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
         <v>48</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>74.964539007092199</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
         <v>96</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>62.553191489361701</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
         <v>384</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>41.205673758865203</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
         <v>0</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>33.262411347517698</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
-      <c r="B11">
-        <v>3</v>
+      <c r="B11" t="s">
+        <v>8</v>
       </c>
       <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
         <v>38.723404255319103</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
         <v>6</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>23.829787234042499</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
         <v>12</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>50.141843971631197</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
         <v>24</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>43.191489361702097</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
         <v>48</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>47.163120567375799</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
         <v>96</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>50.141843971631197</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
         <v>384</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>43.687943262411302</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>3</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>0</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>33.262411347517698</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>3</v>
       </c>
-      <c r="B19">
-        <v>3</v>
+      <c r="B19" t="s">
+        <v>8</v>
       </c>
       <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
         <v>45.177304964538997</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
         <v>6</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>39.7163120567375</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
         <v>12</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>41.205673758865203</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
         <v>24</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>32.7659574468085</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>3</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
         <v>48</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>43.687943262411302</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>3</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
         <v>96</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>45.673758865248203</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>3</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25">
         <v>384</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>47.163120567375799</v>
       </c>
     </row>
